--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>username</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>pam</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>mehmet</t>
+  </si>
+  <si>
+    <t>enes</t>
+  </si>
+  <si>
+    <t>arslan</t>
+  </si>
+  <si>
+    <t>İSİMLERRRR</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D12"/>
@@ -422,8 +437,14 @@
       <c r="C1" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>34</v>
+      </c>
       <c r="E1" t="s" s="0">
         <v>25</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -436,7 +457,13 @@
       <c r="C2" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>35</v>
+      </c>
       <c r="E2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -450,7 +477,13 @@
       <c r="C3" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -464,7 +497,13 @@
       <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>37</v>
+      </c>
       <c r="E4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -478,6 +517,9 @@
       <c r="E5" t="s" s="0">
         <v>26</v>
       </c>
+      <c r="G5" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -489,6 +531,9 @@
       <c r="E6" t="s" s="0">
         <v>27</v>
       </c>
+      <c r="G6" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -500,6 +545,9 @@
       <c r="E7" t="s" s="0">
         <v>28</v>
       </c>
+      <c r="G7" t="s" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -511,6 +559,9 @@
       <c r="E8" t="s" s="0">
         <v>29</v>
       </c>
+      <c r="G8" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -522,6 +573,9 @@
       <c r="E9" t="s" s="0">
         <v>30</v>
       </c>
+      <c r="G9" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -533,6 +587,9 @@
       <c r="E10" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="G10" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -544,6 +601,9 @@
       <c r="E11" t="s" s="0">
         <v>32</v>
       </c>
+      <c r="G11" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -553,6 +613,9 @@
         <v>19</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s" s="0">
         <v>33</v>
       </c>
     </row>
